--- a/SimpleD3/app/src/main/java/com/game/simpled3/References/ArraySpreadsheet.xlsx
+++ b/SimpleD3/app/src/main/java/com/game/simpled3/References/ArraySpreadsheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="113">
   <si>
     <t>Diablofans.com</t>
   </si>
@@ -350,14 +350,17 @@
     <t>ipower_for_lvl</t>
   </si>
   <si>
-    <t>shards_per_dungeon_lvl</t>
+    <t>shards_per_d_lvl</t>
+  </si>
+  <si>
+    <t>xp_for_dungeon_lvl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -407,6 +410,13 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -527,13 +537,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -15269,63 +15279,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="12" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="12"/>
+    <col min="4" max="4" width="26.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" style="12" customWidth="1"/>
     <col min="6" max="6" width="4" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="12"/>
-    <col min="9" max="9" width="6.85546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="12" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="12"/>
     <col min="13" max="13" width="6.85546875" style="12" customWidth="1"/>
     <col min="14" max="14" width="4" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="12"/>
+    <col min="15" max="15" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="12"/>
+    <col min="17" max="17" width="6.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="16" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="M1" s="16" t="s">
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-    </row>
-    <row r="2" spans="1:15" ht="13.5">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>10</v>
+      </c>
+      <c r="D2" s="12" t="e">
+        <f>TEXT(A2+B2+C2,)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>9</v>
@@ -15334,16 +15361,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="14">
         <v>1</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="13" t="s">
         <v>9</v>
@@ -15352,14 +15379,23 @@
         <v>1</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="12">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -15372,16 +15408,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>1</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>9</v>
@@ -15390,14 +15426,23 @@
         <v>2</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12">
+        <v>1500</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -15410,7 +15455,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>9</v>
@@ -15419,7 +15464,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>9</v>
@@ -15428,14 +15473,23 @@
         <v>3</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="12">
+        <v>2000</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -15448,7 +15502,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>9</v>
@@ -15457,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M5" s="13" t="s">
         <v>9</v>
@@ -15466,14 +15520,23 @@
         <v>4</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="12">
+        <v>2500</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -15486,7 +15549,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>9</v>
@@ -15495,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>9</v>
@@ -15504,14 +15567,23 @@
         <v>5</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="12">
+        <v>3000</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -15524,7 +15596,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>9</v>
@@ -15533,7 +15605,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>9</v>
@@ -15542,14 +15614,23 @@
         <v>6</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="12">
+        <v>3500</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -15562,7 +15643,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>9</v>
@@ -15571,7 +15652,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>9</v>
@@ -15580,14 +15661,23 @@
         <v>7</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="12">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -15600,7 +15690,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>9</v>
@@ -15609,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>9</v>
@@ -15618,14 +15708,23 @@
         <v>8</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9" s="12">
+        <v>4500</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -15638,7 +15737,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>9</v>
@@ -15647,7 +15746,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>9</v>
@@ -15656,14 +15755,23 @@
         <v>9</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="12">
+        <v>5000</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -15676,7 +15784,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>9</v>
@@ -15685,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>9</v>
@@ -15694,14 +15802,23 @@
         <v>10</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R11" s="12">
+        <v>5500</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="13" t="s">
@@ -15714,7 +15831,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="13" t="s">
         <v>9</v>
@@ -15723,7 +15840,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>9</v>
@@ -15732,14 +15849,23 @@
         <v>11</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="12">
+        <v>6000</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -15752,7 +15878,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>9</v>
@@ -15761,7 +15887,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>9</v>
@@ -15770,14 +15896,23 @@
         <v>12</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R13" s="12">
+        <v>6500</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -15790,7 +15925,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I14" s="13"/>
       <c r="K14" s="13"/>
@@ -15801,14 +15936,23 @@
         <v>13</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="12">
+        <v>7000</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -15821,13 +15965,13 @@
         <v>14</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
       <c r="M15" s="13" t="s">
         <v>9</v>
       </c>
@@ -15835,14 +15979,23 @@
         <v>14</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="12">
+        <v>7500</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -15855,7 +16008,7 @@
         <v>15</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>9</v>
@@ -15864,7 +16017,7 @@
         <v>0.75</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>9</v>
@@ -15873,14 +16026,23 @@
         <v>15</v>
       </c>
       <c r="O16" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="12">
+        <v>8000</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -15893,7 +16055,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>9</v>
@@ -15902,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M17" s="13" t="s">
         <v>9</v>
@@ -15911,14 +16073,23 @@
         <v>16</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="12">
+        <v>8500</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="13" t="s">
@@ -15931,7 +16102,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>9</v>
@@ -15940,7 +16111,7 @@
         <v>1.25</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>9</v>
@@ -15949,14 +16120,23 @@
         <v>17</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R18" s="12">
+        <v>9000</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13" t="s">
@@ -15969,7 +16149,7 @@
         <v>18</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>9</v>
@@ -15978,7 +16158,7 @@
         <v>1.5</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>9</v>
@@ -15987,14 +16167,23 @@
         <v>18</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19" s="12">
+        <v>9500</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -16007,7 +16196,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>9</v>
@@ -16016,7 +16205,7 @@
         <v>2</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>9</v>
@@ -16025,14 +16214,23 @@
         <v>19</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" s="12">
+        <v>10000</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13" t="s">
@@ -16045,7 +16243,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I21" s="13"/>
       <c r="K21" s="13"/>
@@ -16056,14 +16254,23 @@
         <v>20</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R21" s="12">
+        <v>10500</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -16076,7 +16283,7 @@
         <v>21</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" s="13"/>
       <c r="K22" s="13"/>
@@ -16087,14 +16294,23 @@
         <v>21</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R22" s="12">
+        <v>11000</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -16107,7 +16323,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I23" s="13"/>
       <c r="K23" s="13"/>
@@ -16118,14 +16334,23 @@
         <v>22</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" s="12">
+        <v>11500</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="13" t="s">
@@ -16138,7 +16363,7 @@
         <v>23</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24" s="13"/>
       <c r="K24" s="13"/>
@@ -16149,14 +16374,23 @@
         <v>23</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24" s="12">
+        <v>12000</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="13" t="s">
@@ -16169,7 +16403,7 @@
         <v>24</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I25" s="13"/>
       <c r="K25" s="13"/>
@@ -16180,14 +16414,23 @@
         <v>24</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="12">
+        <v>12500</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -16200,7 +16443,7 @@
         <v>25</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26" s="13"/>
       <c r="K26" s="13"/>
@@ -16211,14 +16454,23 @@
         <v>25</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R26" s="12">
+        <v>13000</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -16231,7 +16483,7 @@
         <v>26</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I27" s="13"/>
       <c r="K27" s="13"/>
@@ -16242,14 +16494,23 @@
         <v>26</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R27" s="12">
+        <v>13500</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -16262,7 +16523,7 @@
         <v>27</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I28" s="13"/>
       <c r="K28" s="13"/>
@@ -16273,14 +16534,23 @@
         <v>27</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="12">
+        <v>14000</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -16293,7 +16563,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29" s="13"/>
       <c r="K29" s="13"/>
@@ -16304,14 +16574,23 @@
         <v>28</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R29" s="12">
+        <v>14500</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -16324,7 +16603,7 @@
         <v>29</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I30" s="13"/>
       <c r="K30" s="13"/>
@@ -16335,14 +16614,23 @@
         <v>29</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R30" s="12">
+        <v>15000</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -16355,7 +16643,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I31" s="13"/>
       <c r="K31" s="13"/>
@@ -16366,14 +16654,23 @@
         <v>30</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R31" s="12">
+        <v>15500</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="13" t="s">
@@ -16386,7 +16683,7 @@
         <v>31</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I32" s="13"/>
       <c r="K32" s="13"/>
@@ -16397,14 +16694,23 @@
         <v>31</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R32" s="12">
+        <v>16000</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -16417,7 +16723,7 @@
         <v>32</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33" s="13"/>
       <c r="K33" s="13"/>
@@ -16428,14 +16734,23 @@
         <v>32</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R33" s="12">
+        <v>16500</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="13" t="s">
@@ -16448,7 +16763,7 @@
         <v>33</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I34" s="13"/>
       <c r="K34" s="13"/>
@@ -16459,14 +16774,23 @@
         <v>33</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="12">
+        <v>17000</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -16479,7 +16803,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I35" s="13"/>
       <c r="K35" s="13"/>
@@ -16490,14 +16814,23 @@
         <v>34</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R35" s="12">
+        <v>17500</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="13" t="s">
@@ -16510,7 +16843,7 @@
         <v>35</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I36" s="13"/>
       <c r="K36" s="13"/>
@@ -16521,14 +16854,23 @@
         <v>35</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R36" s="12">
+        <v>18000</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -16541,7 +16883,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I37" s="13"/>
       <c r="K37" s="13"/>
@@ -16552,14 +16894,23 @@
         <v>36</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R37" s="12">
+        <v>18500</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C38" s="13" t="s">
@@ -16572,7 +16923,7 @@
         <v>37</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38" s="13"/>
       <c r="K38" s="13"/>
@@ -16583,14 +16934,23 @@
         <v>37</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R38" s="12">
+        <v>19000</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="13" t="s">
@@ -16603,7 +16963,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I39" s="13"/>
       <c r="K39" s="13"/>
@@ -16614,14 +16974,23 @@
         <v>38</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R39" s="12">
+        <v>19500</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C40" s="13" t="s">
@@ -16634,7 +17003,7 @@
         <v>39</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I40" s="13"/>
       <c r="K40" s="13"/>
@@ -16645,14 +17014,23 @@
         <v>39</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R40" s="12">
+        <v>20000</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="13" t="s">
@@ -16665,7 +17043,7 @@
         <v>40</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41" s="13"/>
       <c r="K41" s="13"/>
@@ -16676,14 +17054,23 @@
         <v>40</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" s="12">
+        <v>20500</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="13" t="s">
@@ -16696,7 +17083,7 @@
         <v>41</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="13"/>
       <c r="K42" s="13"/>
@@ -16707,14 +17094,23 @@
         <v>41</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R42" s="12">
+        <v>21000</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="13" t="s">
@@ -16727,7 +17123,7 @@
         <v>42</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I43" s="13"/>
       <c r="K43" s="13"/>
@@ -16738,14 +17134,23 @@
         <v>42</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R43" s="12">
+        <v>21500</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="13" t="s">
@@ -16758,7 +17163,7 @@
         <v>43</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I44" s="13"/>
       <c r="K44" s="13"/>
@@ -16769,14 +17174,23 @@
         <v>43</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="12">
+        <v>22000</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="13" t="s">
@@ -16789,7 +17203,7 @@
         <v>44</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I45" s="13"/>
       <c r="K45" s="13"/>
@@ -16800,14 +17214,23 @@
         <v>44</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R45" s="12">
+        <v>22500</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -16820,7 +17243,7 @@
         <v>45</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I46" s="13"/>
       <c r="K46" s="13"/>
@@ -16831,14 +17254,23 @@
         <v>45</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R46" s="12">
+        <v>23000</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -16851,7 +17283,7 @@
         <v>46</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I47" s="13"/>
       <c r="K47" s="13"/>
@@ -16862,14 +17294,23 @@
         <v>46</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R47" s="12">
+        <v>23500</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -16882,7 +17323,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I48" s="13"/>
       <c r="K48" s="13"/>
@@ -16893,14 +17334,23 @@
         <v>47</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R48" s="12">
+        <v>24000</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -16913,7 +17363,7 @@
         <v>48</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I49" s="13"/>
       <c r="K49" s="13"/>
@@ -16924,14 +17374,23 @@
         <v>48</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R49" s="12">
+        <v>24500</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -16944,7 +17403,7 @@
         <v>49</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I50" s="13"/>
       <c r="K50" s="13"/>
@@ -16955,14 +17414,23 @@
         <v>49</v>
       </c>
       <c r="O50" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R50" s="12">
+        <v>25000</v>
+      </c>
+      <c r="S50" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="13" t="s">
@@ -16975,7 +17443,7 @@
         <v>50</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I51" s="13"/>
       <c r="K51" s="13"/>
@@ -16986,14 +17454,23 @@
         <v>50</v>
       </c>
       <c r="O51" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R51" s="12">
+        <v>25500</v>
+      </c>
+      <c r="S51" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="13" t="s">
@@ -17006,7 +17483,7 @@
         <v>51</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I52" s="13"/>
       <c r="K52" s="13"/>
@@ -17017,14 +17494,23 @@
         <v>51</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R52" s="12">
+        <v>26000</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="13" t="s">
@@ -17037,7 +17523,7 @@
         <v>52</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I53" s="13"/>
       <c r="K53" s="13"/>
@@ -17048,14 +17534,23 @@
         <v>52</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R53" s="12">
+        <v>26500</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="13" t="s">
@@ -17068,7 +17563,7 @@
         <v>53</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I54" s="13"/>
       <c r="K54" s="13"/>
@@ -17079,14 +17574,23 @@
         <v>53</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R54" s="12">
+        <v>27000</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -17099,7 +17603,7 @@
         <v>54</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I55" s="13"/>
       <c r="K55" s="13"/>
@@ -17110,14 +17614,23 @@
         <v>54</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R55" s="12">
+        <v>27500</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C56" s="13" t="s">
@@ -17130,7 +17643,7 @@
         <v>55</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I56" s="13"/>
       <c r="K56" s="13"/>
@@ -17141,14 +17654,23 @@
         <v>55</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q56" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R56" s="12">
+        <v>28000</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="13" t="s">
@@ -17161,7 +17683,7 @@
         <v>56</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I57" s="13"/>
       <c r="K57" s="13"/>
@@ -17172,14 +17694,23 @@
         <v>56</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R57" s="12">
+        <v>28500</v>
+      </c>
+      <c r="S57" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -17192,7 +17723,7 @@
         <v>57</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I58" s="13"/>
       <c r="K58" s="13"/>
@@ -17203,14 +17734,23 @@
         <v>57</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" s="12">
+        <v>29000</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C59" s="13" t="s">
@@ -17223,7 +17763,7 @@
         <v>58</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I59" s="13"/>
       <c r="K59" s="13"/>
@@ -17234,14 +17774,23 @@
         <v>58</v>
       </c>
       <c r="O59" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R59" s="12">
+        <v>29500</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C60" s="13" t="s">
@@ -17254,7 +17803,7 @@
         <v>59</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I60" s="13"/>
       <c r="K60" s="13"/>
@@ -17265,14 +17814,23 @@
         <v>59</v>
       </c>
       <c r="O60" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R60" s="12">
+        <v>30000</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="13" t="s">
@@ -17285,7 +17843,7 @@
         <v>60</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I61" s="13"/>
       <c r="K61" s="13"/>
@@ -17296,14 +17854,23 @@
         <v>60</v>
       </c>
       <c r="O61" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R61" s="12">
+        <v>30500</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C62" s="13" t="s">
@@ -17316,7 +17883,7 @@
         <v>61</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I62" s="13"/>
       <c r="K62" s="13"/>
@@ -17327,14 +17894,23 @@
         <v>61</v>
       </c>
       <c r="O62" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R62" s="12">
+        <v>31000</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -17347,7 +17923,7 @@
         <v>62</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I63" s="13"/>
       <c r="K63" s="13"/>
@@ -17358,14 +17934,23 @@
         <v>62</v>
       </c>
       <c r="O63" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R63" s="12">
+        <v>31500</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C64" s="13" t="s">
@@ -17378,7 +17963,7 @@
         <v>63</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I64" s="13"/>
       <c r="K64" s="13"/>
@@ -17389,14 +17974,23 @@
         <v>63</v>
       </c>
       <c r="O64" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R64" s="12">
+        <v>32000</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="13" t="s">
@@ -17409,7 +18003,7 @@
         <v>64</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I65" s="13"/>
       <c r="K65" s="13"/>
@@ -17420,14 +18014,23 @@
         <v>64</v>
       </c>
       <c r="O65" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q65" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R65" s="12">
+        <v>32500</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -17440,7 +18043,7 @@
         <v>65</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I66" s="13"/>
       <c r="K66" s="13"/>
@@ -17451,14 +18054,23 @@
         <v>65</v>
       </c>
       <c r="O66" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R66" s="12">
+        <v>33000</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="13" t="s">
@@ -17471,7 +18083,7 @@
         <v>66</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I67" s="13"/>
       <c r="K67" s="13"/>
@@ -17482,14 +18094,23 @@
         <v>66</v>
       </c>
       <c r="O67" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R67" s="12">
+        <v>33500</v>
+      </c>
+      <c r="S67" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -17502,7 +18123,7 @@
         <v>67</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I68" s="13"/>
       <c r="K68" s="13"/>
@@ -17513,14 +18134,23 @@
         <v>67</v>
       </c>
       <c r="O68" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q68" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R68" s="12">
+        <v>34000</v>
+      </c>
+      <c r="S68" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C69" s="13" t="s">
@@ -17533,7 +18163,7 @@
         <v>68</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I69" s="13"/>
       <c r="K69" s="13"/>
@@ -17544,14 +18174,23 @@
         <v>68</v>
       </c>
       <c r="O69" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q69" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R69" s="12">
+        <v>34500</v>
+      </c>
+      <c r="S69" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C70" s="13" t="s">
@@ -17564,7 +18203,7 @@
         <v>69</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I70" s="13"/>
       <c r="K70" s="13"/>
@@ -17575,14 +18214,23 @@
         <v>69</v>
       </c>
       <c r="O70" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R70" s="12">
+        <v>35000</v>
+      </c>
+      <c r="S70" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>77</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -17595,7 +18243,7 @@
         <v>70</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I71" s="13"/>
       <c r="K71" s="13"/>
@@ -17606,14 +18254,23 @@
         <v>70</v>
       </c>
       <c r="O71" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R71" s="12">
+        <v>35500</v>
+      </c>
+      <c r="S71" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C72" s="13" t="s">
@@ -17626,7 +18283,7 @@
         <v>71</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I72" s="13"/>
       <c r="K72" s="13"/>
@@ -17637,14 +18294,23 @@
         <v>71</v>
       </c>
       <c r="O72" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R72" s="12">
+        <v>36000</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C73" s="13" t="s">
@@ -17657,7 +18323,7 @@
         <v>72</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I73" s="13"/>
       <c r="K73" s="13"/>
@@ -17668,14 +18334,23 @@
         <v>72</v>
       </c>
       <c r="O73" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R73" s="12">
+        <v>36500</v>
+      </c>
+      <c r="S73" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>80</v>
       </c>
       <c r="C74" s="13" t="s">
@@ -17688,7 +18363,7 @@
         <v>73</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I74" s="13"/>
       <c r="K74" s="13"/>
@@ -17699,14 +18374,23 @@
         <v>73</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R74" s="12">
+        <v>37000</v>
+      </c>
+      <c r="S74" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C75" s="13" t="s">
@@ -17719,7 +18403,7 @@
         <v>74</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I75" s="13"/>
       <c r="K75" s="13"/>
@@ -17730,14 +18414,23 @@
         <v>74</v>
       </c>
       <c r="O75" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R75" s="12">
+        <v>37500</v>
+      </c>
+      <c r="S75" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C76" s="13" t="s">
@@ -17750,7 +18443,7 @@
         <v>75</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I76" s="13"/>
       <c r="K76" s="13"/>
@@ -17761,14 +18454,23 @@
         <v>75</v>
       </c>
       <c r="O76" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R76" s="12">
+        <v>38000</v>
+      </c>
+      <c r="S76" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="13" t="s">
@@ -17781,7 +18483,7 @@
         <v>76</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I77" s="13"/>
       <c r="K77" s="13"/>
@@ -17792,14 +18494,23 @@
         <v>76</v>
       </c>
       <c r="O77" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q77" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R77" s="12">
+        <v>38500</v>
+      </c>
+      <c r="S77" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="13" t="s">
@@ -17812,7 +18523,7 @@
         <v>77</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I78" s="13"/>
       <c r="K78" s="13"/>
@@ -17823,14 +18534,23 @@
         <v>77</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R78" s="12">
+        <v>39000</v>
+      </c>
+      <c r="S78" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C79" s="13" t="s">
@@ -17843,7 +18563,7 @@
         <v>78</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I79" s="13"/>
       <c r="K79" s="13"/>
@@ -17854,14 +18574,23 @@
         <v>78</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R79" s="12">
+        <v>39500</v>
+      </c>
+      <c r="S79" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C80" s="13" t="s">
@@ -17874,7 +18603,7 @@
         <v>79</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I80" s="13"/>
       <c r="K80" s="13"/>
@@ -17885,14 +18614,23 @@
         <v>79</v>
       </c>
       <c r="O80" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R80" s="12">
+        <v>40000</v>
+      </c>
+      <c r="S80" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C81" s="13" t="s">
@@ -17905,7 +18643,7 @@
         <v>80</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I81" s="13"/>
       <c r="K81" s="13"/>
@@ -17916,14 +18654,23 @@
         <v>80</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R81" s="12">
+        <v>40500</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C82" s="13" t="s">
@@ -17936,7 +18683,7 @@
         <v>81</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I82" s="13"/>
       <c r="K82" s="13"/>
@@ -17947,14 +18694,23 @@
         <v>81</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R82" s="12">
+        <v>41000</v>
+      </c>
+      <c r="S82" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C83" s="13" t="s">
@@ -17967,7 +18723,7 @@
         <v>82</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I83" s="13"/>
       <c r="K83" s="13"/>
@@ -17978,14 +18734,23 @@
         <v>82</v>
       </c>
       <c r="O83" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q83" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R83" s="12">
+        <v>41500</v>
+      </c>
+      <c r="S83" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C84" s="13" t="s">
@@ -17998,7 +18763,7 @@
         <v>83</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I84" s="13"/>
       <c r="K84" s="13"/>
@@ -18009,14 +18774,23 @@
         <v>83</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R84" s="12">
+        <v>42000</v>
+      </c>
+      <c r="S84" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>91</v>
       </c>
       <c r="C85" s="13" t="s">
@@ -18029,7 +18803,7 @@
         <v>84</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I85" s="13"/>
       <c r="K85" s="13"/>
@@ -18040,14 +18814,23 @@
         <v>84</v>
       </c>
       <c r="O85" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q85" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R85" s="12">
+        <v>42500</v>
+      </c>
+      <c r="S85" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C86" s="13" t="s">
@@ -18060,7 +18843,7 @@
         <v>85</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I86" s="13"/>
       <c r="K86" s="13"/>
@@ -18071,14 +18854,23 @@
         <v>85</v>
       </c>
       <c r="O86" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R86" s="12">
+        <v>43000</v>
+      </c>
+      <c r="S86" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C87" s="13" t="s">
@@ -18091,7 +18883,7 @@
         <v>86</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I87" s="13"/>
       <c r="K87" s="13"/>
@@ -18102,14 +18894,23 @@
         <v>86</v>
       </c>
       <c r="O87" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q87" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R87" s="12">
+        <v>43500</v>
+      </c>
+      <c r="S87" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C88" s="13" t="s">
@@ -18122,7 +18923,7 @@
         <v>87</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I88" s="13"/>
       <c r="K88" s="13"/>
@@ -18133,14 +18934,23 @@
         <v>87</v>
       </c>
       <c r="O88" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q88" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R88" s="12">
+        <v>44000</v>
+      </c>
+      <c r="S88" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C89" s="13" t="s">
@@ -18153,7 +18963,7 @@
         <v>88</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I89" s="13"/>
       <c r="K89" s="13"/>
@@ -18164,14 +18974,23 @@
         <v>88</v>
       </c>
       <c r="O89" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R89" s="12">
+        <v>44500</v>
+      </c>
+      <c r="S89" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C90" s="13" t="s">
@@ -18184,7 +19003,7 @@
         <v>89</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I90" s="13"/>
       <c r="K90" s="13"/>
@@ -18195,14 +19014,23 @@
         <v>89</v>
       </c>
       <c r="O90" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R90" s="12">
+        <v>45000</v>
+      </c>
+      <c r="S90" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C91" s="13" t="s">
@@ -18215,7 +19043,7 @@
         <v>90</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I91" s="13"/>
       <c r="K91" s="13"/>
@@ -18226,14 +19054,23 @@
         <v>90</v>
       </c>
       <c r="O91" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R91" s="12">
+        <v>45500</v>
+      </c>
+      <c r="S91" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C92" s="13" t="s">
@@ -18246,7 +19083,7 @@
         <v>91</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I92" s="13"/>
       <c r="K92" s="13"/>
@@ -18257,14 +19094,23 @@
         <v>91</v>
       </c>
       <c r="O92" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q92" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R92" s="12">
+        <v>46000</v>
+      </c>
+      <c r="S92" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C93" s="13" t="s">
@@ -18277,7 +19123,7 @@
         <v>92</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I93" s="13"/>
       <c r="K93" s="13"/>
@@ -18288,14 +19134,23 @@
         <v>92</v>
       </c>
       <c r="O93" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R93" s="12">
+        <v>46500</v>
+      </c>
+      <c r="S93" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C94" s="13" t="s">
@@ -18308,7 +19163,7 @@
         <v>93</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I94" s="13"/>
       <c r="K94" s="13"/>
@@ -18319,14 +19174,23 @@
         <v>93</v>
       </c>
       <c r="O94" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R94" s="12">
+        <v>47000</v>
+      </c>
+      <c r="S94" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C95" s="13" t="s">
@@ -18339,7 +19203,7 @@
         <v>94</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I95" s="13"/>
       <c r="K95" s="13"/>
@@ -18350,14 +19214,23 @@
         <v>94</v>
       </c>
       <c r="O95" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q95" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R95" s="12">
+        <v>47500</v>
+      </c>
+      <c r="S95" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C96" s="13" t="s">
@@ -18370,7 +19243,7 @@
         <v>95</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I96" s="13"/>
       <c r="K96" s="13"/>
@@ -18381,14 +19254,23 @@
         <v>95</v>
       </c>
       <c r="O96" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q96" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R96" s="12">
+        <v>48000</v>
+      </c>
+      <c r="S96" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="14" t="s">
         <v>103</v>
       </c>
       <c r="C97" s="13" t="s">
@@ -18401,7 +19283,7 @@
         <v>96</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I97" s="13"/>
       <c r="K97" s="13"/>
@@ -18412,14 +19294,23 @@
         <v>96</v>
       </c>
       <c r="O97" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R97" s="12">
+        <v>48500</v>
+      </c>
+      <c r="S97" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C98" s="13" t="s">
@@ -18432,7 +19323,7 @@
         <v>97</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I98" s="13"/>
       <c r="K98" s="13"/>
@@ -18443,14 +19334,23 @@
         <v>97</v>
       </c>
       <c r="O98" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q98" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R98" s="12">
+        <v>49000</v>
+      </c>
+      <c r="S98" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C99" s="13" t="s">
@@ -18463,7 +19363,7 @@
         <v>98</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I99" s="13"/>
       <c r="K99" s="13"/>
@@ -18474,14 +19374,23 @@
         <v>98</v>
       </c>
       <c r="O99" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q99" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R99" s="12">
+        <v>49500</v>
+      </c>
+      <c r="S99" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C100" s="13" t="s">
@@ -18494,7 +19403,7 @@
         <v>99</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I100" s="13"/>
       <c r="K100" s="13"/>
@@ -18505,14 +19414,23 @@
         <v>99</v>
       </c>
       <c r="O100" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="13.5">
+        <v>10</v>
+      </c>
+      <c r="Q100" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R100" s="12">
+        <v>50000</v>
+      </c>
+      <c r="S100" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C101" s="13" t="s">
@@ -18525,7 +19443,7 @@
         <v>100</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I101" s="13"/>
       <c r="K101" s="13"/>
@@ -18536,16 +19454,114 @@
         <v>100</v>
       </c>
       <c r="O101" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="Q101" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R101" s="12">
+        <v>50500</v>
+      </c>
+      <c r="S101" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="Q102" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R102" s="12">
+        <v>51000</v>
+      </c>
+      <c r="S102" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="Q103" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R103" s="12">
+        <v>51500</v>
+      </c>
+      <c r="S103" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="Q104" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R104" s="12">
+        <v>52000</v>
+      </c>
+      <c r="S104" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="Q105" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R105" s="12">
+        <v>52500</v>
+      </c>
+      <c r="S105" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="Q106" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R106" s="12">
+        <v>53000</v>
+      </c>
+      <c r="S106" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="Q107" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R107" s="12">
+        <v>53500</v>
+      </c>
+      <c r="S107" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="Q108" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R108" s="12">
+        <v>54000</v>
+      </c>
+      <c r="S108" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="17.100000000000001" customHeight="1">
+      <c r="Q109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R109" s="12">
+        <v>54500</v>
+      </c>
+      <c r="S109" s="13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
